--- a/TESTFOLDER/schedule.xlsx
+++ b/TESTFOLDER/schedule.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,12 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,30 +453,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Orca_Opt</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Orca_dihedral</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Orca_Dihedral</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Gaussian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gromax</t>
         </is>
@@ -480,24 +491,29 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Calculations/Molekule1/</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Molekule1</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -505,24 +521,29 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Calculations/Molekule2/</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Molekule2</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TESTFOLDER/schedule.xlsx
+++ b/TESTFOLDER/schedule.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -65,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -505,13 +499,13 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>3</v>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -534,7 +528,7 @@
           <t>Molekule2</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
